--- a/Bansal_E_CH04_EXPV1_EOC/Bansal_Exploring_e04_Grader_EOC.xlsx
+++ b/Bansal_E_CH04_EXPV1_EOC/Bansal_Exploring_e04_Grader_EOC.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="123820"/>
   <bookViews>
-    <workbookView xWindow="-150" yWindow="-480" windowWidth="15480" windowHeight="9585"/>
+    <workbookView xWindow="-150" yWindow="-480" windowWidth="15480" windowHeight="9585" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sales Data" sheetId="3" r:id="rId1"/>
     <sheet name="Filtered Data" sheetId="5" r:id="rId2"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Sales Data'!$A$1:$J$11</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'Filtered Data'!$1:$1</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -243,7 +244,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -278,6 +279,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="157l1ZjWLHyKPN2zzWrt6oJjtFiwz2JtEtbdJoISyw0=-~rl1pN1NbfF9E8sRR1gx1NQ==" xfId="5"/>
@@ -297,7 +301,447 @@
     <cellStyle name="Sd0f3rAi0LyvPM3RCfiJ7Y44al8NWpJLX5jLNDkAhCM=-~4grWCskY7xJDiHJgygRuzg==" xfId="14"/>
     <cellStyle name="ZRH/Gj75PVwrwXVuCQTjKM4psHxxxlATBPmahVkO8II=-~KnzVuchVjsRjbzyRQTPvvg==" xfId="9"/>
   </cellStyles>
-  <dxfs count="40">
+  <dxfs count="41">
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="1" formatCode="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color auto="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -378,6 +822,31 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -410,6 +879,31 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="165" formatCode="0.0%"/>
       <fill>
         <patternFill patternType="none">
@@ -435,6 +929,31 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
         <patternFill patternType="none">
@@ -460,7 +979,57 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -525,13 +1094,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right/>
-        <top/>
-        <bottom/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <font>
@@ -577,6 +1139,88 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left/>
+        <right/>
+        <top/>
+        <bottom/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="10"/>
         <color auto="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -596,635 +1240,6 @@
         <bottom/>
       </border>
       <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color auto="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="1" formatCode="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="10"/>
-        <color indexed="8"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="2" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1265,25 +1280,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:J23" totalsRowCount="1" headerRowDxfId="13" headerRowCellStyle="a7mJSBSrg+pcrsxfeuUF7pgz106Smnfs8+hSGEn0SDE=-~IEW9rs3AIg33INQengkhLw==">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table3" displayName="Table3" ref="A1:J23" totalsRowCount="1" headerRowDxfId="40" headerRowCellStyle="a7mJSBSrg+pcrsxfeuUF7pgz106Smnfs8+hSGEn0SDE=-~IEW9rs3AIg33INQengkhLw==">
   <autoFilter ref="A1:J22"/>
   <sortState ref="A2:J22">
     <sortCondition ref="C2:C22"/>
     <sortCondition descending="1" ref="J2:J22"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Number" totalsRowLabel="Averages" dataDxfId="19" totalsRowDxfId="9" dataCellStyle="157l1ZjWLHyKPN2zzWrt6oJjtFiwz2JtEtbdJoISyw0=-~rl1pN1NbfF9E8sRR1gx1NQ=="/>
-    <tableColumn id="2" name="Address" dataDxfId="18" totalsRowDxfId="8" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
-    <tableColumn id="3" name="City" dataDxfId="17" totalsRowDxfId="7" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
-    <tableColumn id="4" name="Selling Agent" dataDxfId="16" totalsRowDxfId="6" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
-    <tableColumn id="5" name="List Price" dataDxfId="15" totalsRowDxfId="5" dataCellStyle="ILyMW1kr8gR+sb+ljZzplDOHRpFT5XvR4ejA4BMgKts=-~2IG6lbXUtP23dreK8dLv5w=="/>
-    <tableColumn id="6" name="Selling Price" dataDxfId="12" totalsRowDxfId="4" dataCellStyle="ILyMW1kr8gR+sb+ljZzplDOHRpFT5XvR4ejA4BMgKts=-~2IG6lbXUtP23dreK8dLv5w=="/>
-    <tableColumn id="11" name="Percent of List Price" totalsRowFunction="average" dataDxfId="10" totalsRowDxfId="3" dataCellStyle="Percent">
+    <tableColumn id="1" name="Number" totalsRowLabel="Averages" dataDxfId="39" totalsRowDxfId="38" dataCellStyle="157l1ZjWLHyKPN2zzWrt6oJjtFiwz2JtEtbdJoISyw0=-~rl1pN1NbfF9E8sRR1gx1NQ=="/>
+    <tableColumn id="2" name="Address" dataDxfId="37" totalsRowDxfId="36" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
+    <tableColumn id="3" name="City" dataDxfId="35" totalsRowDxfId="34" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
+    <tableColumn id="4" name="Selling Agent" dataDxfId="33" totalsRowDxfId="32" dataCellStyle="GhJTUE27ZLmJBWn08GXgVAGXdRZoDvFyJ6ykvqajs5o=-~SYcqzp7xYEAUtDJ4Rt79Fg=="/>
+    <tableColumn id="5" name="List Price" dataDxfId="31" totalsRowDxfId="30" dataCellStyle="ILyMW1kr8gR+sb+ljZzplDOHRpFT5XvR4ejA4BMgKts=-~2IG6lbXUtP23dreK8dLv5w=="/>
+    <tableColumn id="6" name="Selling Price" dataDxfId="29" totalsRowDxfId="28" dataCellStyle="ILyMW1kr8gR+sb+ljZzplDOHRpFT5XvR4ejA4BMgKts=-~2IG6lbXUtP23dreK8dLv5w=="/>
+    <tableColumn id="11" name="Percent of List Price" totalsRowFunction="average" dataDxfId="27" totalsRowDxfId="26" dataCellStyle="Percent">
       <calculatedColumnFormula>Table3[Selling Price]/Table3[List Price]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Listing Date" dataDxfId="11" totalsRowDxfId="2" dataCellStyle="ZRH/Gj75PVwrwXVuCQTjKM4psHxxxlATBPmahVkO8II=-~KnzVuchVjsRjbzyRQTPvvg=="/>
-    <tableColumn id="8" name="Sale Date" dataDxfId="14" totalsRowDxfId="1" dataCellStyle="ZRH/Gj75PVwrwXVuCQTjKM4psHxxxlATBPmahVkO8II=-~KnzVuchVjsRjbzyRQTPvvg=="/>
-    <tableColumn id="9" name="Days on Market" totalsRowFunction="average" totalsRowDxfId="0" dataCellStyle="aYqTwVKezuUZpLlg2QYbM2qhNOinyEq0wfn3Ig58L2k=-~wj/2dkAiw9n7cVXikJacQg==">
+    <tableColumn id="7" name="Listing Date" dataDxfId="25" totalsRowDxfId="24" dataCellStyle="ZRH/Gj75PVwrwXVuCQTjKM4psHxxxlATBPmahVkO8II=-~KnzVuchVjsRjbzyRQTPvvg=="/>
+    <tableColumn id="8" name="Sale Date" dataDxfId="23" totalsRowDxfId="22" dataCellStyle="ZRH/Gj75PVwrwXVuCQTjKM4psHxxxlATBPmahVkO8II=-~KnzVuchVjsRjbzyRQTPvvg=="/>
+    <tableColumn id="9" name="Days on Market" totalsRowFunction="average" totalsRowDxfId="21" dataCellStyle="aYqTwVKezuUZpLlg2QYbM2qhNOinyEq0wfn3Ig58L2k=-~wj/2dkAiw9n7cVXikJacQg==">
       <calculatedColumnFormula>I2-H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1292,25 +1307,38 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J23" totalsRowCount="1" headerRowDxfId="39">
-  <autoFilter ref="A1:J22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table2" displayName="Table2" ref="A1:J23" totalsRowCount="1" headerRowDxfId="20">
+  <autoFilter ref="A1:J22">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Alpine"/>
+        <filter val="Cedar Hills"/>
+        <filter val="Eagle Mountain"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="9">
+      <customFilters>
+        <customFilter operator="greaterThanOrEqual" val="30"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:J37">
     <sortCondition ref="C2:C37"/>
     <sortCondition descending="1" ref="J2:J37"/>
   </sortState>
   <tableColumns count="10">
-    <tableColumn id="1" name="Number" totalsRowLabel="Averages" dataDxfId="38" totalsRowDxfId="37"/>
-    <tableColumn id="2" name="Address" dataDxfId="36" totalsRowDxfId="35"/>
-    <tableColumn id="3" name="City" dataDxfId="34" totalsRowDxfId="33"/>
-    <tableColumn id="4" name="Selling Agent" dataDxfId="32" totalsRowDxfId="31"/>
-    <tableColumn id="5" name="List Price" dataDxfId="30" totalsRowDxfId="29" dataCellStyle="Currency"/>
-    <tableColumn id="6" name="Selling Price" dataDxfId="28" totalsRowDxfId="27" dataCellStyle="Currency"/>
-    <tableColumn id="11" name="Percent of List Price" totalsRowFunction="average" dataDxfId="26" totalsRowDxfId="25" dataCellStyle="Percent">
+    <tableColumn id="1" name="Number" totalsRowLabel="Averages" dataDxfId="19" totalsRowDxfId="18"/>
+    <tableColumn id="2" name="Address" dataDxfId="17" totalsRowDxfId="16"/>
+    <tableColumn id="3" name="City" dataDxfId="15" totalsRowDxfId="14"/>
+    <tableColumn id="4" name="Selling Agent" dataDxfId="13" totalsRowDxfId="12"/>
+    <tableColumn id="5" name="List Price" dataDxfId="11" totalsRowDxfId="10"/>
+    <tableColumn id="6" name="Selling Price" dataDxfId="9" totalsRowDxfId="8"/>
+    <tableColumn id="11" name="Percent of List Price" totalsRowFunction="average" dataDxfId="7" totalsRowDxfId="6" dataCellStyle="Percent">
       <calculatedColumnFormula>Table2[Selling Price]/Table2[List Price]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" name="Listing Date" dataDxfId="24" totalsRowDxfId="23"/>
-    <tableColumn id="8" name="Sale Date" dataDxfId="22" totalsRowDxfId="21"/>
-    <tableColumn id="9" name="Days on Market" totalsRowFunction="average" totalsRowDxfId="20">
+    <tableColumn id="7" name="Listing Date" dataDxfId="5" totalsRowDxfId="4"/>
+    <tableColumn id="8" name="Sale Date" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="9" name="Days on Market" totalsRowFunction="average" totalsRowDxfId="1">
       <calculatedColumnFormula>I2-H2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1604,14 +1632,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+    <sheetView zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" customWidth="1"/>
     <col min="2" max="2" width="21.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="14" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.42578125" customWidth="1"/>
@@ -1684,7 +1712,7 @@
         <v>41214</v>
       </c>
       <c r="J2" s="3">
-        <f>I2-H2</f>
+        <f t="shared" ref="J2:J22" si="0">I2-H2</f>
         <v>203</v>
       </c>
     </row>
@@ -1718,7 +1746,7 @@
         <v>41090</v>
       </c>
       <c r="J3" s="3">
-        <f>I3-H3</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -1752,7 +1780,7 @@
         <v>41092</v>
       </c>
       <c r="J4" s="3">
-        <f>I4-H4</f>
+        <f t="shared" si="0"/>
         <v>74</v>
       </c>
     </row>
@@ -1786,7 +1814,7 @@
         <v>41083</v>
       </c>
       <c r="J5" s="3">
-        <f>I5-H5</f>
+        <f t="shared" si="0"/>
         <v>66</v>
       </c>
     </row>
@@ -1794,7 +1822,7 @@
       <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="4" t="s">
@@ -1820,7 +1848,7 @@
         <v>41062</v>
       </c>
       <c r="J6" s="3">
-        <f>I6-H6</f>
+        <f t="shared" si="0"/>
         <v>55</v>
       </c>
     </row>
@@ -1854,7 +1882,7 @@
         <v>41079</v>
       </c>
       <c r="J7" s="3">
-        <f>I7-H7</f>
+        <f t="shared" si="0"/>
         <v>50</v>
       </c>
     </row>
@@ -1888,7 +1916,7 @@
         <v>41182</v>
       </c>
       <c r="J8" s="3">
-        <f>I8-H8</f>
+        <f t="shared" si="0"/>
         <v>177</v>
       </c>
     </row>
@@ -1922,7 +1950,7 @@
         <v>41182</v>
       </c>
       <c r="J9" s="3">
-        <f>I9-H9</f>
+        <f t="shared" si="0"/>
         <v>151</v>
       </c>
     </row>
@@ -1956,7 +1984,7 @@
         <v>41126</v>
       </c>
       <c r="J10" s="3">
-        <f>I10-H10</f>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
     </row>
@@ -1990,7 +2018,7 @@
         <v>41044</v>
       </c>
       <c r="J11" s="3">
-        <f>I11-H11</f>
+        <f t="shared" si="0"/>
         <v>44</v>
       </c>
     </row>
@@ -2024,7 +2052,7 @@
         <v>41076</v>
       </c>
       <c r="J12" s="3">
-        <f>I12-H12</f>
+        <f t="shared" si="0"/>
         <v>76</v>
       </c>
     </row>
@@ -2058,7 +2086,7 @@
         <v>41086</v>
       </c>
       <c r="J13" s="3">
-        <f>I13-H13</f>
+        <f t="shared" si="0"/>
         <v>56</v>
       </c>
     </row>
@@ -2092,7 +2120,7 @@
         <v>41066</v>
       </c>
       <c r="J14" s="3">
-        <f>I14-H14</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2126,7 +2154,7 @@
         <v>41059</v>
       </c>
       <c r="J15" s="3">
-        <f>I15-H15</f>
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
     </row>
@@ -2160,7 +2188,7 @@
         <v>41183</v>
       </c>
       <c r="J16" s="3">
-        <f>I16-H16</f>
+        <f t="shared" si="0"/>
         <v>154</v>
       </c>
     </row>
@@ -2194,7 +2222,7 @@
         <v>41146</v>
       </c>
       <c r="J17" s="3">
-        <f>I17-H17</f>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
     </row>
@@ -2228,7 +2256,7 @@
         <v>41063</v>
       </c>
       <c r="J18" s="3">
-        <f>I18-H18</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
@@ -2262,7 +2290,7 @@
         <v>41057</v>
       </c>
       <c r="J19" s="3">
-        <f>I19-H19</f>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
     </row>
@@ -2296,7 +2324,7 @@
         <v>41034</v>
       </c>
       <c r="J20" s="3">
-        <f>I20-H20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -2330,7 +2358,7 @@
         <v>41072</v>
       </c>
       <c r="J21" s="3">
-        <f>I21-H21</f>
+        <f t="shared" si="0"/>
         <v>61</v>
       </c>
     </row>
@@ -2364,7 +2392,7 @@
         <v>41078</v>
       </c>
       <c r="J22" s="3">
-        <f>I22-H22</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -2393,7 +2421,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="77" orientation="landscape" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -2404,10 +2432,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="F4" sqref="F4"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection activeCell="C9" sqref="C9"/>
+      <selection pane="bottomLeft" activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2660,7 +2688,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5">
         <v>3</v>
       </c>
@@ -2694,7 +2722,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5">
         <v>21</v>
       </c>
@@ -2728,7 +2756,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5">
         <v>7</v>
       </c>
@@ -2762,7 +2790,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5">
         <v>2</v>
       </c>
@@ -2898,7 +2926,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="5">
         <v>20</v>
       </c>
@@ -3068,7 +3096,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="5">
         <v>17</v>
       </c>
@@ -3102,7 +3130,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="5">
         <v>5</v>
       </c>
@@ -3136,7 +3164,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="5">
         <v>16</v>
       </c>
@@ -3181,16 +3209,58 @@
       <c r="F23" s="13"/>
       <c r="G23" s="14">
         <f>SUBTOTAL(101,Table2[Percent of List Price])</f>
-        <v>0.95499132424905808</v>
+        <v>0.94840756351319844</v>
       </c>
       <c r="H23" s="12"/>
       <c r="I23" s="12"/>
       <c r="J23" s="15">
         <f>SUBTOTAL(101,Table2[Days on Market])</f>
-        <v>78.952380952380949</v>
+        <v>79.230769230769226</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="J2:J19">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Arrows">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2:F19">
+    <cfRule type="dataBar" priority="2">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{EE699F1A-5B26-444E-810A-49660E736419}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F2">
+    <cfRule type="dataBar" priority="3">
+      <dataBar>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FF008AEF"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{71280FB2-6D9A-40AF-8BD2-32B2BE433026}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G2:G19">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
+      <formula>0.979</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="69" orientation="landscape" r:id="rId1"/>
   <rowBreaks count="1" manualBreakCount="1">
@@ -3199,16 +3269,42 @@
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
+      <x14:conditionalFormattings>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{EE699F1A-5B26-444E-810A-49660E736419}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2:F19</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{71280FB2-6D9A-40AF-8BD2-32B2BE433026}">
+            <x14:dataBar minLength="0" maxLength="100" border="1" negativeBarBorderColorSameAsPositive="0">
+              <x14:cfvo type="autoMin"/>
+              <x14:cfvo type="autoMax"/>
+              <x14:borderColor rgb="FF008AEF"/>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:negativeBorderColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>F2</xm:sqref>
+        </x14:conditionalFormatting>
+      </x14:conditionalFormattings>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<project>
-  <id>nugrSOeIyJYnKCpd8h0pjGLSFer/7eZvyPf8+6Q0uow=-~qgdhq9j6nsqj+N/ruQkG3Q==</id>
-</project>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <outs:outSpaceData xmlns:outs="http://schemas.microsoft.com/office/2009/outspace/metadata">
   <outs:relatedDates>
     <outs:relatedDate>
@@ -3334,16 +3430,22 @@
 </outs:outSpaceData>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F19824-9A28-42D6-A594-6DB4210F73AA}">
-  <ds:schemaRefs/>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<project>
+  <id>nugrSOeIyJYnKCpd8h0pjGLSFer/7eZvyPf8+6Q0uow=-~qgdhq9j6nsqj+N/ruQkG3Q==</id>
+</project>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1F6B669-9C57-41F2-A666-6E9D39318F31}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2009/outspace/metadata"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C4F19824-9A28-42D6-A594-6DB4210F73AA}">
+  <ds:schemaRefs/>
+</ds:datastoreItem>
 </file>